--- a/Database Overview Diagram/FinalDatabase Overview.xlsx
+++ b/Database Overview Diagram/FinalDatabase Overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prashnat\Desktop\Project\Database Overview Diagram\Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA4A4F1F-C0A9-44B2-9A03-CF39C0C8297F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A684B94-03BD-42A5-9127-AD8E09A3BF12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="65">
   <si>
     <t>Admin</t>
   </si>
@@ -126,9 +126,6 @@
     <t>varchar(40)</t>
   </si>
   <si>
-    <t>char(1)</t>
-  </si>
-  <si>
     <t>aadhar</t>
   </si>
   <si>
@@ -204,7 +201,25 @@
     <t>dropdown</t>
   </si>
   <si>
-    <t>a/v/c</t>
+    <t>status</t>
+  </si>
+  <si>
+    <t>tinyint</t>
+  </si>
+  <si>
+    <t>true/false</t>
+  </si>
+  <si>
+    <t>for vendor authorization</t>
+  </si>
+  <si>
+    <t>roll_id</t>
+  </si>
+  <si>
+    <t>varchar(1)</t>
+  </si>
+  <si>
+    <t>v/c</t>
   </si>
 </sst>
 </file>
@@ -311,7 +326,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -321,6 +336,9 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -336,7 +354,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -617,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:O109"/>
+  <dimension ref="B3:O118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="113" zoomScaleNormal="203" workbookViewId="0">
-      <selection activeCell="L82" sqref="L82"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="113" zoomScaleNormal="203" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -631,11 +649,12 @@
     <col min="4" max="4" width="9.44140625" customWidth="1"/>
     <col min="5" max="5" width="8.33203125" customWidth="1"/>
     <col min="6" max="6" width="9.44140625" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" customWidth="1"/>
-    <col min="8" max="8" width="19.44140625" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" customWidth="1"/>
-    <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="13" max="13" width="8.6640625" customWidth="1"/>
+    <col min="7" max="7" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.44140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.44140625" bestFit="1" customWidth="1"/>
@@ -646,755 +665,806 @@
   </cols>
   <sheetData>
     <row r="3" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
     </row>
     <row r="4" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
     </row>
     <row r="5" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
     </row>
     <row r="6" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="G6" s="9" t="s">
-        <v>14</v>
-      </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
-    </row>
-    <row r="7" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="1" t="s">
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+    </row>
+    <row r="7" spans="5:15" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+    </row>
+    <row r="8" spans="5:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+    </row>
+    <row r="9" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="G9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1" t="s">
+    <row r="10" spans="5:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" s="1" t="s">
+      <c r="I10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="G9" s="1">
-        <v>2</v>
-      </c>
-      <c r="H9" s="1" t="s">
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+    </row>
+    <row r="11" spans="5:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G11" s="1">
+        <v>2</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="5"/>
+      <c r="L11" t="s">
+        <v>64</v>
+      </c>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+    </row>
+    <row r="12" spans="5:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+    </row>
+    <row r="13" spans="5:15" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+    </row>
+    <row r="14" spans="5:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G14" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+    </row>
+    <row r="15" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="G15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G17" s="1">
+        <v>2</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G18" s="1">
+        <v>3</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="G10" s="1">
-        <v>3</v>
-      </c>
-      <c r="H10" s="1" t="s">
+      <c r="J18" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G19" s="1">
+        <v>4</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="G11" s="1">
+      <c r="J19" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G20" s="1">
+        <v>5</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G21" s="1">
+        <v>6</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G22" s="1">
+        <v>7</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G23" s="1">
+        <v>8</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G24" s="1">
+        <v>9</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G25" s="1">
+        <v>10</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G26" s="1">
+        <v>11</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L26" t="s">
+        <v>60</v>
+      </c>
+      <c r="M26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G29" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+    </row>
+    <row r="30" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J30" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="G12" s="1">
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+    </row>
+    <row r="31" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="G13" s="1">
-        <v>6</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="G14" s="1">
+      <c r="I31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J31" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="G15" s="1">
-        <v>8</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="G16" s="1">
-        <v>9</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="G17" s="10">
-        <v>10</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="G20" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="G21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="G22" s="1">
-        <v>1</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="G23" s="1">
-        <v>2</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="G24" s="1">
-        <v>3</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="B26" s="3"/>
-    </row>
-    <row r="27" spans="2:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="B27" s="3"/>
-      <c r="G27" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="7"/>
-    </row>
-    <row r="28" spans="2:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="B28" s="3"/>
-      <c r="G28" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="G29" s="1">
-        <v>1</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="G30" s="1">
-        <v>2</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="G31" s="1">
-        <v>3</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="7:13" x14ac:dyDescent="0.3">
       <c r="G32" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>40</v>
       </c>
       <c r="I32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="G33" s="1">
+        <v>3</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" ht="15" x14ac:dyDescent="0.3">
+      <c r="B36" s="3"/>
+      <c r="G36" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="8"/>
+    </row>
+    <row r="37" spans="2:10" ht="15" x14ac:dyDescent="0.3">
+      <c r="B37" s="3"/>
+      <c r="G37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" ht="15" x14ac:dyDescent="0.3">
+      <c r="B38" s="3"/>
+      <c r="G38" s="1">
+        <v>1</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="G39" s="1">
+        <v>2</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="G40" s="1">
+        <v>3</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="G41" s="1">
+        <v>4</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I41" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J32" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G33" s="1">
+      <c r="J41" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="G42" s="1">
         <v>5</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G34" s="1">
-        <v>6</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G38" s="5" t="s">
+      <c r="H42" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="G43" s="1">
+        <v>6</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="G47" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="7"/>
-    </row>
-    <row r="39" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G39" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J39" s="1" t="s">
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="8"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="G48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G40" s="1">
-        <v>1</v>
-      </c>
-      <c r="H40" s="1" t="s">
+    <row r="49" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G49" s="1">
+        <v>1</v>
+      </c>
+      <c r="H49" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I40" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J40" s="1" t="s">
+      <c r="I49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J49" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G41" s="1">
-        <v>2</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G42" s="1">
-        <v>3</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G48" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="7"/>
-    </row>
-    <row r="49" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G49" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="50" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G50" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G51" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G57" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="8"/>
+    </row>
+    <row r="58" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G58" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G59" s="1">
+        <v>1</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G60" s="1">
+        <v>2</v>
+      </c>
+      <c r="H60" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="1" t="s">
+      <c r="I60" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J51" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G55" s="5" t="s">
+      <c r="J60" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G64" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="7"/>
-    </row>
-    <row r="56" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G56" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J56" s="1" t="s">
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="8"/>
+    </row>
+    <row r="65" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G65" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J65" s="1" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G57" s="1">
-        <v>1</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G58" s="1">
-        <v>2</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="62" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G62" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="7"/>
-    </row>
-    <row r="63" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G63" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G64" s="1">
-        <v>1</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G65" s="1">
-        <v>2</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="66" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G66" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G67" s="1">
+        <v>2</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G71" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="8"/>
+    </row>
+    <row r="72" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G72" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J72" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H67" s="1" t="s">
+    </row>
+    <row r="73" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G73" s="1">
+        <v>1</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G74" s="1">
+        <v>2</v>
+      </c>
+      <c r="H74" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I67" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J67" s="1" t="s">
+      <c r="I74" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J74" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G68" s="1">
-        <v>5</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="69" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G69" s="1">
-        <v>6</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="70" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G70" s="1">
-        <v>7</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="71" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G71" s="1">
-        <v>8</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J71" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
     <row r="75" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G75" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H75" s="6"/>
-      <c r="I75" s="6"/>
-      <c r="J75" s="7"/>
+      <c r="G75" s="1">
+        <v>3</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="76" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G76" s="1" t="s">
-        <v>1</v>
+      <c r="G76" s="1">
+        <v>4</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G77" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G78" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G79" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>10</v>
@@ -1402,258 +1472,244 @@
     </row>
     <row r="80" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G80" s="1">
+        <v>8</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G84" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H84" s="7"/>
+      <c r="I84" s="7"/>
+      <c r="J84" s="8"/>
+    </row>
+    <row r="85" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G85" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J85" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H80" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="81" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G81" s="1">
+    </row>
+    <row r="86" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G86" s="1">
+        <v>1</v>
+      </c>
+      <c r="H86" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H81" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J81" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="85" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G85" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H85" s="6"/>
-      <c r="I85" s="6"/>
-      <c r="J85" s="7"/>
-    </row>
-    <row r="86" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G86" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="I86" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G87" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="I87" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G88" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G89" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G90" s="1">
+        <v>5</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G94" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H94" s="7"/>
+      <c r="I94" s="7"/>
+      <c r="J94" s="8"/>
+    </row>
+    <row r="95" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G95" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J95" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H90" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J90" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="91" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G91" s="1">
+    </row>
+    <row r="96" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G96" s="1">
+        <v>1</v>
+      </c>
+      <c r="H96" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H91" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I91" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J91" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="96" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G96" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H96" s="6"/>
-      <c r="I96" s="6"/>
-      <c r="J96" s="7"/>
+      <c r="I96" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="97" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G97" s="1" t="s">
-        <v>1</v>
+      <c r="G97" s="1">
+        <v>2</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="98" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G98" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="I98" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="99" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G99" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="I99" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G100" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J100" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G101" s="1">
+    <row r="105" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G105" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H105" s="7"/>
+      <c r="I105" s="7"/>
+      <c r="J105" s="8"/>
+    </row>
+    <row r="106" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G106" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J106" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I101" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J101" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="104" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G104" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H104" s="6"/>
-      <c r="I104" s="6"/>
-      <c r="J104" s="7"/>
-    </row>
-    <row r="105" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G105" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H105" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I105" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J105" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="106" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G106" s="1">
-        <v>1</v>
-      </c>
-      <c r="H106" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I106" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J106" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="107" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G107" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="I107" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="108" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G108" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="I108" s="1" t="s">
         <v>6</v>
@@ -1664,32 +1720,125 @@
     </row>
     <row r="109" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G109" s="1">
+        <v>3</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G110" s="1">
         <v>4</v>
       </c>
-      <c r="H109" s="1" t="s">
+      <c r="H110" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G113" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H113" s="7"/>
+      <c r="I113" s="7"/>
+      <c r="J113" s="8"/>
+    </row>
+    <row r="114" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G114" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G115" s="1">
+        <v>1</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G116" s="1">
+        <v>2</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="117" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G117" s="1">
+        <v>3</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="118" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G118" s="1">
+        <v>4</v>
+      </c>
+      <c r="H118" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I109" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J109" s="1" t="s">
+      <c r="I118" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J118" s="1" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="H3:O5"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="G104:J104"/>
-    <mergeCell ref="G55:J55"/>
-    <mergeCell ref="G62:J62"/>
-    <mergeCell ref="G48:J48"/>
-    <mergeCell ref="G75:J75"/>
-    <mergeCell ref="G85:J85"/>
-    <mergeCell ref="G96:J96"/>
+  <mergeCells count="13">
+    <mergeCell ref="G113:J113"/>
+    <mergeCell ref="G64:J64"/>
+    <mergeCell ref="G71:J71"/>
+    <mergeCell ref="G57:J57"/>
+    <mergeCell ref="G84:J84"/>
+    <mergeCell ref="G94:J94"/>
+    <mergeCell ref="G105:J105"/>
+    <mergeCell ref="G47:J47"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="H3:O6"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G8:J8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Database Overview Diagram/FinalDatabase Overview.xlsx
+++ b/Database Overview Diagram/FinalDatabase Overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prashnat\Desktop\Project\Database Overview Diagram\Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A684B94-03BD-42A5-9127-AD8E09A3BF12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195A2F7C-2C56-40A3-9A2F-4C84AAF94DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="65">
-  <si>
-    <t>Admin</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="66">
   <si>
     <t>Sr.no</t>
   </si>
@@ -180,9 +177,6 @@
     <t>prod_id</t>
   </si>
   <si>
-    <t>qty</t>
-  </si>
-  <si>
     <t>double</t>
   </si>
   <si>
@@ -210,9 +204,6 @@
     <t>true/false</t>
   </si>
   <si>
-    <t>for vendor authorization</t>
-  </si>
-  <si>
     <t>roll_id</t>
   </si>
   <si>
@@ -220,6 +211,18 @@
   </si>
   <si>
     <t>v/c</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>for vendor approval</t>
+  </si>
+  <si>
+    <t>bigint</t>
+  </si>
+  <si>
+    <t>quantity</t>
   </si>
 </sst>
 </file>
@@ -354,7 +357,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -635,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:O118"/>
+  <dimension ref="B3:O110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="113" zoomScaleNormal="203" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" topLeftCell="B93" zoomScale="113" zoomScaleNormal="203" workbookViewId="0">
+      <selection activeCell="H91" sqref="H91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -666,7 +669,7 @@
   <sheetData>
     <row r="3" spans="5:15" x14ac:dyDescent="0.3">
       <c r="H3" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
@@ -718,7 +721,7 @@
     </row>
     <row r="8" spans="5:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G8" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -731,16 +734,16 @@
     </row>
     <row r="9" spans="5:15" x14ac:dyDescent="0.3">
       <c r="G9" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="10" spans="5:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -748,13 +751,13 @@
         <v>1</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
@@ -767,27 +770,23 @@
         <v>2</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K11" s="5"/>
       <c r="L11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
     </row>
     <row r="12" spans="5:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
@@ -795,10 +794,6 @@
       <c r="O12" s="5"/>
     </row>
     <row r="13" spans="5:15" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
@@ -807,7 +802,7 @@
     </row>
     <row r="14" spans="5:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G14" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
@@ -820,16 +815,16 @@
     </row>
     <row r="15" spans="5:15" x14ac:dyDescent="0.3">
       <c r="G15" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="16" spans="5:15" x14ac:dyDescent="0.3">
@@ -839,13 +834,13 @@
         <v>1</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="17" spans="7:13" x14ac:dyDescent="0.3">
@@ -853,13 +848,13 @@
         <v>2</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="7:13" x14ac:dyDescent="0.3">
@@ -867,13 +862,13 @@
         <v>3</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="7:13" x14ac:dyDescent="0.3">
@@ -881,13 +876,13 @@
         <v>4</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="7:13" x14ac:dyDescent="0.3">
@@ -895,13 +890,13 @@
         <v>5</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="7:13" x14ac:dyDescent="0.3">
@@ -909,13 +904,13 @@
         <v>6</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="7:13" x14ac:dyDescent="0.3">
@@ -923,13 +918,13 @@
         <v>7</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="7:13" x14ac:dyDescent="0.3">
@@ -937,13 +932,13 @@
         <v>8</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="7:13" x14ac:dyDescent="0.3">
@@ -951,13 +946,13 @@
         <v>9</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="7:13" x14ac:dyDescent="0.3">
@@ -965,16 +960,16 @@
         <v>10</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="7:13" x14ac:dyDescent="0.3">
@@ -982,26 +977,34 @@
         <v>11</v>
       </c>
       <c r="H26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L26" t="s">
         <v>58</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J26" s="1" t="s">
+      <c r="M26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G27" s="11">
+        <v>12</v>
+      </c>
+      <c r="H27" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L26" t="s">
-        <v>60</v>
-      </c>
-      <c r="M26" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="7:13" x14ac:dyDescent="0.3">
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
+      <c r="I27" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="28" spans="7:13" x14ac:dyDescent="0.3">
       <c r="G28" s="4"/>
@@ -1009,663 +1012,650 @@
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" spans="7:13" x14ac:dyDescent="0.3">
-      <c r="G29" s="6" t="s">
+    <row r="31" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G31" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="8"/>
+    </row>
+    <row r="32" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G32" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-    </row>
-    <row r="30" spans="7:13" x14ac:dyDescent="0.3">
-      <c r="G30" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I30" s="1" t="s">
+      <c r="H32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J32" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-    </row>
-    <row r="31" spans="7:13" x14ac:dyDescent="0.3">
-      <c r="G31" s="1">
-        <v>1</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="7:13" x14ac:dyDescent="0.3">
-      <c r="G32" s="1">
-        <v>2</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="G33" s="1">
+        <v>1</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="G34" s="1">
+        <v>2</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="G35" s="1">
         <v>3</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>10</v>
+      <c r="H35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="2:10" ht="15" x14ac:dyDescent="0.3">
       <c r="B36" s="3"/>
-      <c r="G36" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="8"/>
+      <c r="G36" s="1">
+        <v>4</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="37" spans="2:10" ht="15" x14ac:dyDescent="0.3">
       <c r="B37" s="3"/>
-      <c r="G37" s="1" t="s">
-        <v>1</v>
+      <c r="G37" s="1">
+        <v>5</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="2:10" ht="15" x14ac:dyDescent="0.3">
       <c r="B38" s="3"/>
-      <c r="G38" s="1">
-        <v>1</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="G39" s="1">
-        <v>2</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="G40" s="1">
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="F41" t="s">
+        <v>62</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="8"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="G42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J42" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="G41" s="1">
-        <v>4</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="G42" s="1">
-        <v>5</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.3">
       <c r="G43" s="1">
+        <v>1</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J43" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H43" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="G47" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="8"/>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="G48" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I48" s="1" t="s">
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="G44" s="1">
+        <v>2</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G49" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="8"/>
+    </row>
+    <row r="50" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J50" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G49" s="1">
-        <v>1</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G50" s="1">
-        <v>2</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="51" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G51" s="1">
+        <v>1</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G52" s="1">
+        <v>2</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G56" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="8"/>
+    </row>
+    <row r="57" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J57" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H51" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G57" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="8"/>
     </row>
     <row r="58" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G58" s="1" t="s">
+      <c r="G58" s="1">
         <v>1</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G59" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I59" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G63" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="8"/>
+    </row>
+    <row r="64" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G65" s="1">
+        <v>1</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J65" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G60" s="1">
-        <v>2</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G64" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H64" s="7"/>
-      <c r="I64" s="7"/>
-      <c r="J64" s="8"/>
-    </row>
-    <row r="65" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G65" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="66" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G66" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G67" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G68" s="1">
+        <v>4</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G69" s="1">
+        <v>5</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G70" s="1">
+        <v>6</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G71" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H71" s="7"/>
-      <c r="I71" s="7"/>
-      <c r="J71" s="8"/>
+      <c r="G71" s="1">
+        <v>7</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="72" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G72" s="1" t="s">
-        <v>1</v>
+      <c r="G72" s="1">
+        <v>8</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="I72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G76" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H76" s="7"/>
+      <c r="I76" s="7"/>
+      <c r="J76" s="8"/>
+    </row>
+    <row r="77" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G77" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J77" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="J72" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G73" s="1">
-        <v>1</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J73" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="74" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G74" s="1">
-        <v>2</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="75" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G75" s="1">
-        <v>3</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J75" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="76" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G76" s="1">
-        <v>4</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="77" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G77" s="1">
-        <v>5</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J77" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="78" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G78" s="1">
+        <v>1</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J78" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J78" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="79" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G79" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G80" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="84" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G84" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H84" s="7"/>
-      <c r="I84" s="7"/>
-      <c r="J84" s="8"/>
-    </row>
-    <row r="85" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G85" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I85" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G81" s="1">
+        <v>4</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G82" s="1">
+        <v>5</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G86" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H86" s="7"/>
+      <c r="I86" s="7"/>
+      <c r="J86" s="8"/>
+    </row>
+    <row r="87" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G87" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J87" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="J85" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="86" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G86" s="1">
-        <v>1</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I86" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J86" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="87" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G87" s="1">
-        <v>2</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I87" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J87" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="88" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G88" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G89" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G90" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="94" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G94" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H94" s="7"/>
-      <c r="I94" s="7"/>
-      <c r="J94" s="8"/>
-    </row>
-    <row r="95" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G95" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I95" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G91" s="1">
+        <v>4</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G92" s="1">
+        <v>5</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G97" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H97" s="7"/>
+      <c r="I97" s="7"/>
+      <c r="J97" s="8"/>
+    </row>
+    <row r="98" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G98" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J98" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="J95" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="96" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G96" s="1">
-        <v>1</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I96" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J96" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="97" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G97" s="1">
-        <v>2</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I97" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J97" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="98" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G98" s="1">
-        <v>3</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I98" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J98" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="99" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G99" s="1">
+        <v>1</v>
+      </c>
+      <c r="H99" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H99" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="I99" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J99" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="J99" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="100" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G100" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G101" s="1">
+        <v>3</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G102" s="1">
+        <v>4</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="105" spans="7:10" x14ac:dyDescent="0.3">
@@ -1678,16 +1668,16 @@
     </row>
     <row r="106" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G106" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J106" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="J106" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="107" spans="7:10" x14ac:dyDescent="0.3">
@@ -1695,13 +1685,13 @@
         <v>1</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I107" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J107" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="J107" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="108" spans="7:10" x14ac:dyDescent="0.3">
@@ -1709,13 +1699,13 @@
         <v>2</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" spans="7:10" x14ac:dyDescent="0.3">
@@ -1723,13 +1713,13 @@
         <v>3</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" spans="7:10" x14ac:dyDescent="0.3">
@@ -1737,108 +1727,29 @@
         <v>4</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="113" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G113" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H113" s="7"/>
-      <c r="I113" s="7"/>
-      <c r="J113" s="8"/>
-    </row>
-    <row r="114" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G114" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H114" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I114" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J114" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="115" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G115" s="1">
-        <v>1</v>
-      </c>
-      <c r="H115" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I115" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J115" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="116" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G116" s="1">
-        <v>2</v>
-      </c>
-      <c r="H116" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I116" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J116" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="117" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G117" s="1">
-        <v>3</v>
-      </c>
-      <c r="H117" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I117" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J117" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="118" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G118" s="1">
-        <v>4</v>
-      </c>
-      <c r="H118" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I118" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J118" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="G113:J113"/>
-    <mergeCell ref="G64:J64"/>
-    <mergeCell ref="G71:J71"/>
-    <mergeCell ref="G57:J57"/>
-    <mergeCell ref="G84:J84"/>
-    <mergeCell ref="G94:J94"/>
-    <mergeCell ref="G105:J105"/>
-    <mergeCell ref="G47:J47"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="G29:J29"/>
+  <mergeCells count="12">
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="G31:J31"/>
     <mergeCell ref="H3:O6"/>
     <mergeCell ref="G14:J14"/>
     <mergeCell ref="G8:J8"/>
+    <mergeCell ref="G105:J105"/>
+    <mergeCell ref="G56:J56"/>
+    <mergeCell ref="G63:J63"/>
+    <mergeCell ref="G49:J49"/>
+    <mergeCell ref="G76:J76"/>
+    <mergeCell ref="G86:J86"/>
+    <mergeCell ref="G97:J97"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Database Overview Diagram/FinalDatabase Overview.xlsx
+++ b/Database Overview Diagram/FinalDatabase Overview.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prashnat\Desktop\Project\Database Overview Diagram\Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CDAC 2023 Knowit Tushar\Git PROJECT\CDac_Project\Database Overview Diagram\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195A2F7C-2C56-40A3-9A2F-4C84AAF94DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107A56F2-B8F8-43D3-AC6A-E24D8527D668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1392" yWindow="1716" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -342,6 +342,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -357,7 +358,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -640,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:O110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B93" zoomScale="113" zoomScaleNormal="203" workbookViewId="0">
-      <selection activeCell="H91" sqref="H91"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I107" sqref="I107:I110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -668,46 +668,46 @@
   </cols>
   <sheetData>
     <row r="3" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
     </row>
     <row r="4" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
     </row>
     <row r="5" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
     </row>
     <row r="6" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
     </row>
     <row r="7" spans="5:15" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H7" s="5"/>
@@ -720,12 +720,12 @@
       <c r="O7" s="5"/>
     </row>
     <row r="8" spans="5:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="9"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
@@ -801,12 +801,12 @@
       <c r="O13" s="5"/>
     </row>
     <row r="14" spans="5:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
@@ -993,16 +993,16 @@
       </c>
     </row>
     <row r="27" spans="7:13" x14ac:dyDescent="0.3">
-      <c r="G27" s="11">
+      <c r="G27" s="6">
         <v>12</v>
       </c>
-      <c r="H27" s="11" t="s">
+      <c r="H27" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I27" s="11" t="s">
+      <c r="I27" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="J27" s="11" t="s">
+      <c r="J27" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1013,12 +1013,12 @@
       <c r="J28" s="4"/>
     </row>
     <row r="31" spans="7:13" x14ac:dyDescent="0.3">
-      <c r="G31" s="6" t="s">
+      <c r="G31" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="9"/>
     </row>
     <row r="32" spans="7:13" x14ac:dyDescent="0.3">
       <c r="G32" s="1" t="s">
@@ -1113,12 +1113,12 @@
       <c r="F41" t="s">
         <v>62</v>
       </c>
-      <c r="G41" s="6" t="s">
+      <c r="G41" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="9"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.3">
       <c r="G42" s="1" t="s">
@@ -1163,12 +1163,12 @@
       </c>
     </row>
     <row r="49" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G49" s="6" t="s">
+      <c r="G49" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="9"/>
     </row>
     <row r="50" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G50" s="1" t="s">
@@ -1213,12 +1213,12 @@
       </c>
     </row>
     <row r="56" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G56" s="6" t="s">
+      <c r="G56" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="9"/>
     </row>
     <row r="57" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G57" s="1" t="s">
@@ -1263,12 +1263,12 @@
       </c>
     </row>
     <row r="63" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G63" s="6" t="s">
+      <c r="G63" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="9"/>
     </row>
     <row r="64" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G64" s="1" t="s">
@@ -1397,12 +1397,12 @@
       </c>
     </row>
     <row r="76" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G76" s="6" t="s">
+      <c r="G76" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H76" s="7"/>
-      <c r="I76" s="7"/>
-      <c r="J76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="9"/>
     </row>
     <row r="77" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G77" s="1" t="s">
@@ -1489,12 +1489,12 @@
       </c>
     </row>
     <row r="86" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G86" s="6" t="s">
+      <c r="G86" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H86" s="7"/>
-      <c r="I86" s="7"/>
-      <c r="J86" s="8"/>
+      <c r="H86" s="8"/>
+      <c r="I86" s="8"/>
+      <c r="J86" s="9"/>
     </row>
     <row r="87" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G87" s="1" t="s">
@@ -1581,12 +1581,12 @@
       </c>
     </row>
     <row r="97" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G97" s="6" t="s">
+      <c r="G97" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H97" s="7"/>
-      <c r="I97" s="7"/>
-      <c r="J97" s="8"/>
+      <c r="H97" s="8"/>
+      <c r="I97" s="8"/>
+      <c r="J97" s="9"/>
     </row>
     <row r="98" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G98" s="1" t="s">
@@ -1659,12 +1659,12 @@
       </c>
     </row>
     <row r="105" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G105" s="6" t="s">
+      <c r="G105" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H105" s="7"/>
-      <c r="I105" s="7"/>
-      <c r="J105" s="8"/>
+      <c r="H105" s="8"/>
+      <c r="I105" s="8"/>
+      <c r="J105" s="9"/>
     </row>
     <row r="106" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G106" s="1" t="s">
@@ -1738,11 +1738,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="H3:O6"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G8:J8"/>
     <mergeCell ref="G105:J105"/>
     <mergeCell ref="G56:J56"/>
     <mergeCell ref="G63:J63"/>
@@ -1750,6 +1745,11 @@
     <mergeCell ref="G76:J76"/>
     <mergeCell ref="G86:J86"/>
     <mergeCell ref="G97:J97"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="H3:O6"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G8:J8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
